--- a/rhla_analysis/rhla1_3_zipf_result/k2.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.084510875287667</v>
+        <v>1.084510875287676</v>
       </c>
       <c r="B2" t="n">
         <v>11.58454643550014</v>
@@ -466,12 +466,12 @@
         <v>0.01832907075873828</v>
       </c>
       <c r="D2" t="n">
-        <v>10.68181675211633</v>
+        <v>10.68181675211624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.63300003439739</v>
+        <v>1.633000034397392</v>
       </c>
       <c r="B3" t="n">
         <v>73.50577245168606</v>
@@ -480,12 +480,12 @@
         <v>0.03878942881500426</v>
       </c>
       <c r="D3" t="n">
-        <v>45.01271947542313</v>
+        <v>45.01271947542308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40.65624145951966</v>
+        <v>40.65624145951981</v>
       </c>
       <c r="B4" t="n">
         <v>1636.473426460478</v>
@@ -494,12 +494,12 @@
         <v>0.0370843989769821</v>
       </c>
       <c r="D4" t="n">
-        <v>40.2514685989818</v>
+        <v>40.25146859898166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1167156256513806</v>
+        <v>0.1167156256513803</v>
       </c>
       <c r="B5" t="n">
         <v>2.048012801607156</v>
@@ -508,12 +508,12 @@
         <v>0.03324808184143223</v>
       </c>
       <c r="D5" t="n">
-        <v>17.54703185779419</v>
+        <v>17.54703185779424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.03787770510387792</v>
+        <v>0.03787770510387787</v>
       </c>
       <c r="B6" t="n">
         <v>1.38756825465055</v>
@@ -522,12 +522,12 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="D6" t="n">
-        <v>36.63284908220299</v>
+        <v>36.63284908220304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.07264337322925929</v>
+        <v>0.07264337322925916</v>
       </c>
       <c r="B7" t="n">
         <v>2.395186953964298</v>
@@ -536,12 +536,12 @@
         <v>0.04731457800511509</v>
       </c>
       <c r="D7" t="n">
-        <v>32.97185754859143</v>
+        <v>32.97185754859149</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.154986370749165</v>
+        <v>0.1549863707491642</v>
       </c>
       <c r="B8" t="n">
         <v>2.226531407148038</v>
@@ -550,12 +550,12 @@
         <v>0.03410059676044331</v>
       </c>
       <c r="D8" t="n">
-        <v>14.36598196593382</v>
+        <v>14.36598196593389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2252643267760346</v>
+        <v>0.2252643267760349</v>
       </c>
       <c r="B9" t="n">
         <v>5.899785448680634</v>
@@ -564,7 +564,7 @@
         <v>0.03751065643648764</v>
       </c>
       <c r="D9" t="n">
-        <v>26.19050043616715</v>
+        <v>26.19050043616712</v>
       </c>
     </row>
     <row r="10">
@@ -583,7 +583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.248513016101043</v>
+        <v>3.248513016101047</v>
       </c>
       <c r="B11" t="n">
         <v>120.6913345904794</v>
@@ -592,7 +592,7 @@
         <v>0.05626598465473145</v>
       </c>
       <c r="D11" t="n">
-        <v>37.15279390671383</v>
+        <v>37.15279390671378</v>
       </c>
     </row>
   </sheetData>
